--- a/stats.xlsx
+++ b/stats.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Square Footage" sheetId="1" r:id="rId1"/>
     <sheet name="Team Members" sheetId="2" r:id="rId2"/>
+    <sheet name="Partnerships" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Time</t>
   </si>
@@ -38,15 +39,50 @@
   <si>
     <t>Q</t>
   </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>CSEC</t>
+  </si>
+  <si>
+    <t>Stratasys</t>
+  </si>
+  <si>
+    <t>Tavistock</t>
+  </si>
+  <si>
+    <t>SimLEARN</t>
+  </si>
+  <si>
+    <t>VAH</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,8 +108,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +151,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -215,11 +259,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230288448"/>
-        <c:axId val="368062216"/>
+        <c:axId val="335197424"/>
+        <c:axId val="335198208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230288448"/>
+        <c:axId val="335197424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,12 +320,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368062216"/>
+        <c:crossAx val="335198208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368062216"/>
+        <c:axId val="335198208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -338,7 +382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230288448"/>
+        <c:crossAx val="335197424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1294,7 +1338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -1386,4 +1430,360 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <f>ISTEXT(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <f>ISTEXT(D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <f>ISTEXT(F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <f>ISTEXT(B3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <f t="shared" ref="E3:E20" si="0">ISTEXT(D3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <f t="shared" ref="G3:G20" si="1">ISTEXT(F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="b">
+        <f t="shared" ref="C3:C20" si="2">ISTEXT(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <f>COUNTIF(C2:C20,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="D22:G22" si="3">COUNTIF(E2:E20,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>